--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t xml:space="preserve">MVDR_REAL</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Baseline Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <dimension ref="A4:L52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H30:H50 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1366,10 +1369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:L51"/>
+  <dimension ref="A3:L55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30:H50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2576,6 +2579,11 @@
         <v>-0.00406089523809524</v>
       </c>
     </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -142,8 +142,8 @@
   </sheetPr>
   <dimension ref="A4:L52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -262,7 +262,7 @@
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">B52</f>
-        <v>0.000111668095238095</v>
+        <v>-2.75456047619048</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,7 +299,7 @@
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">D52</f>
-        <v>2.64171380952381E-005</v>
+        <v>4.55250476190476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +336,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">F52</f>
-        <v>0.000147995047619048</v>
+        <v>1.08772714285714</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +373,7 @@
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">H52</f>
-        <v>-0.000552625714285714</v>
+        <v>2.49680347619048</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,25 +794,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.00037294</v>
+        <v>-3.6367</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4.0548E-005</v>
+        <v>5.7928</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>-0.00036748</v>
+        <v>6.6453</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>-0.0017242</v>
+        <v>7.3775</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,25 +820,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-0.0018792</v>
+        <v>-1.3348</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-0.00035055</v>
+        <v>5.2465</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.00014405</v>
+        <v>0.83944</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>-0.0013886</v>
+        <v>4.3348</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,25 +846,25 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.0022837</v>
+        <v>-4.7804</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>4.5771E-005</v>
+        <v>4.1372</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.00032476</v>
+        <v>-0.63201</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>-0.0032558</v>
+        <v>-0.11725</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.0015145</v>
+        <v>-2.6536</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>-1.7008E-006</v>
+        <v>7.2551</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.00055458</v>
+        <v>-0.23005</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>-0.00020555</v>
+        <v>-0.67277</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,25 +898,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-0.0022896</v>
+        <v>-1.0203</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-0.00022399</v>
+        <v>4.5217</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.0001231</v>
+        <v>1.8755</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>-0.00058847</v>
+        <v>5.1222</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,25 +924,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-0.00032261</v>
+        <v>-2.3578</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0005423</v>
+        <v>-1.6119</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1.1941E-005</v>
+        <v>1.2895</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>-0.00044873</v>
+        <v>4.1397</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,25 +950,25 @@
         <v>1</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-0.00019163</v>
+        <v>4.5102</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>-0.00033059</v>
+        <v>4.9351</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2.34E-005</v>
+        <v>0.16868</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.00084358</v>
+        <v>6.6783</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,25 +976,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.00027047</v>
+        <v>-5.8524</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3.2321E-005</v>
+        <v>5.3475</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.0004565</v>
+        <v>2.3464</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-0.0013094</v>
+        <v>1.8247</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,25 +1002,25 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.0012087</v>
+        <v>0.53728</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-0.00013157</v>
+        <v>6.1261</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>5.9915E-005</v>
+        <v>0.96477</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.0018564</v>
+        <v>0.067423</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,25 +1028,25 @@
         <v>1</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-0.00034636</v>
+        <v>-3.567</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>-0.00033338</v>
+        <v>3.0404</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.00037581</v>
+        <v>0.94502</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.0022874</v>
+        <v>-8.7805</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,25 +1054,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.00017992</v>
+        <v>-5.7987</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>-0.00014879</v>
+        <v>6.6923</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.00053642</v>
+        <v>0.91196</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-0.001889</v>
+        <v>3.4485</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,25 +1080,25 @@
         <v>1</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-0.0015146</v>
+        <v>-0.96127</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-0.00019605</v>
+        <v>1.7386</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.00024166</v>
+        <v>-0.1203</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.00041917</v>
+        <v>1.2405</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,25 +1106,25 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.0010515</v>
+        <v>-1.212</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>9.2377E-006</v>
+        <v>5.5918</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.00017987</v>
+        <v>-1.4514</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.00064826</v>
+        <v>6.0847</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,25 +1132,25 @@
         <v>1</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-0.0015844</v>
+        <v>-2.407</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>-3.1285E-005</v>
+        <v>5.0929</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>-0.00029327</v>
+        <v>4.4494</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>-0.0042241</v>
+        <v>0.20637</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,25 +1158,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>-0.0013419</v>
+        <v>-4.2211</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.00012805</v>
+        <v>4.2678</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>6.449E-005</v>
+        <v>0.49371</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>-0.0014356</v>
+        <v>-1.4946</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,25 +1184,25 @@
         <v>1</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.0013114</v>
+        <v>-4.4108</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>7.0695E-005</v>
+        <v>2.6247</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>-0.00028295</v>
+        <v>-2.8524</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.00074727</v>
+        <v>6.7354</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,25 +1210,25 @@
         <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.00019166</v>
+        <v>0.68162</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3.2505E-005</v>
+        <v>7.9113</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.00047962</v>
+        <v>3.7774</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.0017183</v>
+        <v>-1.0779</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,25 +1236,25 @@
         <v>1</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-0.000568</v>
+        <v>-1.4737</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.00040166</v>
+        <v>4.9194</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.00034928</v>
+        <v>-5.5913</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>-0.00060493</v>
+        <v>2.3136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,25 +1262,25 @@
         <v>1</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.0018613</v>
+        <v>-10.185</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.000891</v>
+        <v>3.1549</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.0002743</v>
+        <v>0.51245</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>-0.0010222</v>
+        <v>4.315</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,25 +1288,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.0017643</v>
+        <v>-4.0656</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>6.803E-005</v>
+        <v>3.0256</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.00021938</v>
+        <v>1.8549</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>-0.00030474</v>
+        <v>3.3097</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,43 +1314,43 @@
         <v>1</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.00037294</v>
+        <v>-3.6367</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>4.0548E-005</v>
+        <v>5.7928</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>-0.00036748</v>
+        <v>6.6453</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>-0.0017242</v>
+        <v>7.3775</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
         <f aca="false">AVERAGE(B31:B51)</f>
-        <v>0.000111668095238095</v>
+        <v>-2.75456047619048</v>
       </c>
       <c r="D52" s="0" t="n">
         <f aca="false">AVERAGE(D31:D51)</f>
-        <v>2.64171380952381E-005</v>
+        <v>4.55250476190476</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="false">AVERAGE(F31:F51)</f>
-        <v>0.000147995047619048</v>
+        <v>1.08772714285714</v>
       </c>
       <c r="H52" s="0" t="n">
         <f aca="false">AVERAGE(H31:H51)</f>
-        <v>-0.000552625714285714</v>
+        <v>2.49680347619048</v>
       </c>
     </row>
   </sheetData>
@@ -1371,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A3:L55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">B51</f>
-        <v>-0.0042977</v>
+        <v>3.45318476190476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">D51</f>
-        <v>-0.00408347142857143</v>
+        <v>7.65088095238095</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">F51</f>
-        <v>-0.00439618571428572</v>
+        <v>5.4115380952381</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">H51</f>
-        <v>-0.00406089523809524</v>
+        <v>7.06770804761905</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,25 +2020,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-0.0049321</v>
+        <v>10.321</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>-0.0061138</v>
+        <v>10.031</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>-0.0053104</v>
+        <v>8.6009</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>-0.0055459</v>
+        <v>9.4354</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,25 +2046,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-0.0044559</v>
+        <v>5.3878</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-0.0040699</v>
+        <v>7.5911</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>-0.0046035</v>
+        <v>4.9497</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>-0.0040065</v>
+        <v>7.4404</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,25 +2072,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-0.0044414</v>
+        <v>0.21766</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-0.0010394</v>
+        <v>6.9942</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>-0.0041651</v>
+        <v>1.968</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>-0.0032447</v>
+        <v>6.2291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,25 +2098,25 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.0028517</v>
+        <v>3.339</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-0.0036911</v>
+        <v>9.4482</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>-0.0040051</v>
+        <v>5.4893</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>-0.004</v>
+        <v>9.1883</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,25 +2124,25 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-0.0048616</v>
+        <v>2.5952</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>-0.0071593</v>
+        <v>9.2878</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>-0.0044717</v>
+        <v>7.2567</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>-0.0053314</v>
+        <v>7.2042</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,25 +2150,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-0.0023826</v>
+        <v>2.1117</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-0.0048053</v>
+        <v>7.6252</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>-0.0034033</v>
+        <v>6.0315</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>-0.0035739</v>
+        <v>8.0092</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,25 +2176,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-0.0048321</v>
+        <v>7.6927</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>-0.0047877</v>
+        <v>6.6047</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>-0.0047753</v>
+        <v>9.1171</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>-0.0041194</v>
+        <v>8.5946</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,25 +2202,25 @@
         <v>1</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-0.0042642</v>
+        <v>2.2571</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>-0.0028572</v>
+        <v>7.685</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>-0.0042334</v>
+        <v>6.7372</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>-0.0050223</v>
+        <v>5.0989</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,25 +2228,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-0.0027632</v>
+        <v>2.9659</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>-0.0040511</v>
+        <v>8.079</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-0.0038224</v>
+        <v>6.0366</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-0.0029779</v>
+        <v>8.4539</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,25 +2254,25 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-0.0043489</v>
+        <v>3.4474</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-0.0034179</v>
+        <v>5.6028</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-0.0037318</v>
+        <v>3.9808</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-0.0038104</v>
+        <v>-0.062731</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,25 +2280,25 @@
         <v>1</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-0.0047809</v>
+        <v>2.6699</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>-0.0024571</v>
+        <v>8.6462</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-0.0035889</v>
+        <v>8.699</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-0.0034825</v>
+        <v>6.3784</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,25 +2306,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-0.0048527</v>
+        <v>4.8345</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>-0.0039725</v>
+        <v>3.6346</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-0.0048862</v>
+        <v>2.0501</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-0.004535</v>
+        <v>5.2535</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,25 +2332,25 @@
         <v>1</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-0.0034678</v>
+        <v>2.1827</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-0.0041079</v>
+        <v>7.6349</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>-0.0038015</v>
+        <v>3.3634</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>-0.0042704</v>
+        <v>9.5696</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,25 +2358,25 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-0.0052423</v>
+        <v>3.7126</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-0.0032676</v>
+        <v>7.1436</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>-0.0054514</v>
+        <v>7.0276</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>-0.005054</v>
+        <v>7.1512</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,25 +2384,25 @@
         <v>1</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-0.0033139</v>
+        <v>2.0192</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>-0.0032383</v>
+        <v>7.3998</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>-0.0043358</v>
+        <v>6.5748</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>-0.0061108</v>
+        <v>1.3833</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,25 +2410,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>-0.0039841</v>
+        <v>3.0798</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>-0.0050006</v>
+        <v>7.1626</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>-0.0049867</v>
+        <v>2.5489</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>-0.0010336</v>
+        <v>9.2059</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,25 +2436,25 @@
         <v>1</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>-0.0056344</v>
+        <v>4.2106</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>-0.0038473</v>
+        <v>9.913</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>-0.0038716</v>
+        <v>6.7499</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>-0.0033369</v>
+        <v>11.306</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,25 +2462,25 @@
         <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>-0.0041305</v>
+        <v>2.9929</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>-0.0031773</v>
+        <v>5.721</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>-0.0046936</v>
+        <v>1.5721</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>-0.004248</v>
+        <v>5.2971</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,25 +2488,25 @@
         <v>1</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-0.0033798</v>
+        <v>-3.3558</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>-0.0043208</v>
+        <v>6.9719</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>-0.0043518</v>
+        <v>3.4513</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>-0.003728</v>
+        <v>6.4591</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,25 +2514,25 @@
         <v>1</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>-0.0063995</v>
+        <v>-0.48598</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>-0.004257</v>
+        <v>7.4609</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>-0.00452</v>
+        <v>2.8365</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>-0.0023013</v>
+        <v>7.3911</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,43 +2540,43 @@
         <v>1</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>-0.0049321</v>
+        <v>10.321</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>-0.0061138</v>
+        <v>10.031</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>-0.0053104</v>
+        <v>8.6009</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>-0.0055459</v>
+        <v>9.4354</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
         <f aca="false">AVERAGE(B30:B50)</f>
-        <v>-0.0042977</v>
+        <v>3.45318476190476</v>
       </c>
       <c r="D51" s="0" t="n">
         <f aca="false">AVERAGE(D30:D50)</f>
-        <v>-0.00408347142857143</v>
+        <v>7.65088095238095</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">AVERAGE(F30:F50)</f>
-        <v>-0.00439618571428572</v>
+        <v>5.4115380952381</v>
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">AVERAGE(H30:H50)</f>
-        <v>-0.00406089523809524</v>
+        <v>7.06770804761905</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">MVDR_REAL</t>
   </si>
@@ -35,16 +35,25 @@
     <t xml:space="preserve">Real</t>
   </si>
   <si>
+    <t xml:space="preserve">baseline</t>
+  </si>
+  <si>
     <t xml:space="preserve">mvdr</t>
   </si>
   <si>
-    <t xml:space="preserve">baseline</t>
+    <t xml:space="preserve">cgmm</t>
   </si>
   <si>
     <t xml:space="preserve">Baseline Real</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">CGMM Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGMM Based MVDR</t>
   </si>
 </sst>
 </file>
@@ -59,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,18 +150,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:L52"/>
+  <dimension ref="A4:M76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,6 +237,9 @@
       <c r="L7" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -257,12 +270,16 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
+        <f aca="false">B52</f>
+        <v>-2.75456047619048</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">B27</f>
         <v>8.96110952380952</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">B52</f>
-        <v>-2.75456047619048</v>
+      <c r="M8" s="0" t="n">
+        <f aca="false">B76</f>
+        <v>6.20162809523809</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,12 +311,16 @@
         <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
+        <f aca="false">D52</f>
+        <v>4.55250476190476</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">D27</f>
         <v>11.4885047619048</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">D52</f>
-        <v>4.55250476190476</v>
+      <c r="M9" s="0" t="n">
+        <f aca="false">D76</f>
+        <v>6.54377523809524</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,12 +352,16 @@
         <v>3</v>
       </c>
       <c r="K10" s="0" t="n">
+        <f aca="false">F52</f>
+        <v>1.08772714285714</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <f aca="false">F27</f>
         <v>14.7478380952381</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">F52</f>
-        <v>1.08772714285714</v>
+      <c r="M10" s="0" t="n">
+        <f aca="false">F76</f>
+        <v>11.6539047619048</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,12 +393,16 @@
         <v>4</v>
       </c>
       <c r="K11" s="0" t="n">
+        <f aca="false">H52</f>
+        <v>2.49680347619048</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <f aca="false">H27</f>
         <v>10.2755523809524</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">H52</f>
-        <v>2.49680347619048</v>
+      <c r="M11" s="0" t="n">
+        <f aca="false">H76</f>
+        <v>5.46870142857143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +815,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,6 +1380,575 @@
       <c r="H52" s="0" t="n">
         <f aca="false">AVERAGE(H31:H51)</f>
         <v>2.49680347619048</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1.8504</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>6.9941</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>6.0745</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>3.884</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>2.9499</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>4.7628</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>9.4049</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>2.8734</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>8.1326</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>4.6676</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>14.423</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>9.8038</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>9.4603</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>5.7361</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>14.128</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>5.9728</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>4.0875</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>11.425</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>6.9379</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>3.8783</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>-0.3712</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>3.4907</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>9.1557</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>3.2793</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>13.666</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>13.196</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>3.0695</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2.8342</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>6.0472</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>15.343</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>4.3275</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>11.434</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>4.955</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>12.246</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>5.7569</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0.72219</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>6.5566</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>9.8808</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.29873</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>9.4707</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>7.6144</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>9.9668</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>5.2877</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>3.1633</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>9.5398</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>11.772</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>8.1262</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>14.125</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>8.4556</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>15.193</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>5.1145</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>6.2742</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>5.9765</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>9.3872</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>3.0483</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>9.0983</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>6.3269</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>13.015</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>7.4253</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>12.057</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>14.306</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>4.5093</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>6.9166</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>6.8481</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>17.803</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>7.8179</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>2.3364</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>3.5403</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>12.268</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>1.9683</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>10.374</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>-0.47912</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>7.7786</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>4.5507</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>9.5808</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>13.444</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>17.556</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>6.2356</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>1.8504</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>6.9941</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>6.0745</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>3.884</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <f aca="false">AVERAGE(B55:B75)</f>
+        <v>6.20162809523809</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <f aca="false">AVERAGE(D55:D75)</f>
+        <v>6.54377523809524</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <f aca="false">AVERAGE(F55:F75)</f>
+        <v>11.6539047619048</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">AVERAGE(H55:H75)</f>
+        <v>5.46870142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1369,15 +1967,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:L55"/>
+  <dimension ref="A3:M76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,6 +2051,9 @@
       <c r="L6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1483,12 +2084,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
+        <f aca="false">B51</f>
+        <v>3.45318476190476</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <f aca="false">B26</f>
         <v>8.83296190476191</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">B51</f>
-        <v>3.45318476190476</v>
+      <c r="M7" s="0" t="n">
+        <f aca="false">B76</f>
+        <v>4.05870285714286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,12 +2125,16 @@
         <v>2</v>
       </c>
       <c r="K8" s="0" t="n">
+        <f aca="false">D51</f>
+        <v>7.65088095238095</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">D26</f>
         <v>11.0161619047619</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">D51</f>
-        <v>7.65088095238095</v>
+      <c r="M8" s="0" t="n">
+        <f aca="false">D76</f>
+        <v>4.06842095238095</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,12 +2166,16 @@
         <v>3</v>
       </c>
       <c r="K9" s="0" t="n">
+        <f aca="false">F51</f>
+        <v>5.4115380952381</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <f aca="false">F26</f>
         <v>13.8971380952381</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <f aca="false">F51</f>
-        <v>5.4115380952381</v>
+      <c r="M9" s="0" t="n">
+        <f aca="false">F76</f>
+        <v>8.86698571428572</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,12 +2207,16 @@
         <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
+        <f aca="false">H51</f>
+        <v>7.06770804761905</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <f aca="false">H26</f>
         <v>10.4326476190476</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <f aca="false">H51</f>
-        <v>7.06770804761905</v>
+      <c r="M10" s="0" t="n">
+        <f aca="false">H76</f>
+        <v>3.33464042857143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2629,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,15 +3196,579 @@
         <v>7.06770804761905</v>
       </c>
     </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="0" t="s">
-        <v>7</v>
+      <c r="A55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>-0.90701</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3.7088</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>-0.0066845</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.14103</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>3.8085</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>6.784</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.87178</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>7.3479</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>4.8467</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>15.539</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>5.2933</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>18.096</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>1.4992</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>4.3197</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1.1886</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>9.2122</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>6.7191</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>3.4849</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>-1.7674</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>-1.2352</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>7.169</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>10.004</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>5.0456</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.89508</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>-0.57825</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1.7294</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>12.157</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.54976</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>4.4099</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.77404</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>8.856</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1.598</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>-4.1639</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.42445</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>4.2987</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>-0.55565</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>2.4654</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>4.1186</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1.6975</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>2.1843</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>3.0156</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>9.8206</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>12.981</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>7.7079</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>11.381</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>8.7919</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>15.895</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>3.128</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>2.0304</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2.9639</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>3.1342</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.025648</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>7.1736</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>3.4212</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>11.168</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>9.1981</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>6.6348</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>10.249</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>8.4305</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>5.5892</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>10.197</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>6.396</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>17.766</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>6.7114</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>-1.9788</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>-3.6782</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>8.3384</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>-2.2096</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>7.6245</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>-0.53035</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>4.7718</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>4.3033</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>10.299</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>10.165</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>7.0963</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>-0.90701</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>3.7088</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>-0.0066845</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <f aca="false">AVERAGE(B55:B75)</f>
+        <v>4.05870285714286</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <f aca="false">AVERAGE(D55:D75)</f>
+        <v>4.06842095238095</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <f aca="false">AVERAGE(F55:F75)</f>
+        <v>8.86698571428572</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">AVERAGE(H55:H75)</f>
+        <v>3.33464042857143</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Simu" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="New SNR CAL" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">MVDR_REAL</t>
   </si>
@@ -54,6 +55,54 @@
   </si>
   <si>
     <t xml:space="preserve">CGMM Based MVDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superdirective simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimation simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPARISON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superdirectv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gev-blstm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gev-FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pesq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gev-BLSTM</t>
   </si>
 </sst>
 </file>
@@ -128,9 +177,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -158,10 +219,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,13 +2030,13 @@
   </sheetPr>
   <dimension ref="A3:M76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,4 +3835,2604 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:L79"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-4.0808</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.0154</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-0.43938</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>-1.857</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>-2.2105</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2.4105</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>-4.0026</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2.2736</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6.4031</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.4955</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>-0.62389</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-1.9705</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7.8199</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2.3751</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2.1184</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2.2749</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-0.78747</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.3936</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-0.074976</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-1.0468</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>-0.92947</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2.2764</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>-0.59669</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2.5544</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6.3236</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.0746</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-0.32249</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-2.3293</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7.1749</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>2.4508</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3.7228</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2.4819</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-3.1721</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.4962</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-0.20457</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-2.5117</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>-3.1364</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2.1826</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>-3.7252</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2.649</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.1035</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.7817</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-0.97632</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>-2.3705</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2.0943</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2.2867</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.0424</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.5003</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.39802</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.4398</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-0.88874</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>-2.267</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>-0.96091</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3.0361</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>-0.26741</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2.1576</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2.4082</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.7142</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-0.31948</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>-1.5591</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.1712</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>2.8399</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.1289</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2.3672</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12.976</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-0.72002</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>-2.8776</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>12.735</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2.2396</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>5.5918</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2.5812</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2.6101</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.9639</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-1.1633</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-3.1143</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.7309</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3.2747</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>5.661</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2.9487</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-4.0808</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3.0154</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>-0.43938</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-1.857</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>-2.2105</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>2.4105</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>-4.0026</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2.2736</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B14)</f>
+        <v>2.19103181818182</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C14)</f>
+        <v>2.60175454545455</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E14)</f>
+        <v>-0.561140545454546</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F14)</f>
+        <v>-2.16007272727273</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H14)</f>
+        <v>2.20712909090909</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I14)</f>
+        <v>2.52571818181818</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>2.1184</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2.2749</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-8.5488</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.7502</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>-6.4578</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2.3657</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>-4.8357</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>2.3458</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>-8.0153</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2.0753</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-1.907</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>-1.6796</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2.0376</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>2.2804</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>-3.3933</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2.1509</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>-6.879</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.1849</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>-3.3332</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.8418</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-1.8406</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>2.0916</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>-6.6541</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.3458</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>-1.2341</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.8106</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-2.5422</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.7144</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>5.5253</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>2.1919</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>-4.085</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2.1306</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>-7.8211</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.2436</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>-5.3644</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.8988</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>-4.3514</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2.0488</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>-5.0556</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2.4118</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>-2.4299</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>-0.64139</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.3965</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>2.7152</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>2.3941</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>-0.51998</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2.4917</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>-3.312</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.3159</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>-1.1476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2.2784</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>-2.0292</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>2.8809</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>-4.7708</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2.101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-4.3143</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.5192</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>-2.0429</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.1904</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1.2278</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>2.6752</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>-3.106</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2.2715</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4.6883</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.9466</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.45451</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1.7073</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>7.1028</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2.0922</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.45407</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>2.1451</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>-2.1129</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2.7403</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>-3.5493</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2.5836</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.059071</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>3.1106</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>-1.4901</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2.6913</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>-8.5488</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.7502</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>-6.4578</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2.3657</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>-4.8357</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>2.3458</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>-8.0153</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2.0753</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <f aca="false">AVERAGE(B17:B27)</f>
+        <v>-3.85632727272727</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">AVERAGE(C17:C27)</f>
+        <v>2.36477272727273</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">AVERAGE(E17:E27)</f>
+        <v>-2.97833454545455</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">AVERAGE(F17:F27)</f>
+        <v>2.12547272727273</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">AVERAGE(H17:H27)</f>
+        <v>0.304233727272727</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">AVERAGE(I17:I27)</f>
+        <v>2.40520909090909</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">AVERAGE(K17:K27)</f>
+        <v>-4.05921909090909</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">AVERAGE(L17:L27)</f>
+        <v>2.26275454545455</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-8.7467</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.87315</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>-8.738</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1.2418</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>-7.7989</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2.4862</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>-9.0288</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>2.8844</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>-5.6076</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.85676</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>-6.6258</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1.2286</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>-5.5798</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.54731</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>-6.3922</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1.0252</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>-7.8141</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.35298</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>-7.6145</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.92276</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>-7.6781</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.39056</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>-7.7201</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.29815</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-8.0999</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.0024</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>-8.211</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1.1444</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>-8.2222</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.65444</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>-7.8124</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.65402</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>-7.2075</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.14094</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>-7.5223</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>-7.6142</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>-7.5516</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.10993</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>-5.3854</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>-6.5015</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1.1311</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>-5.6718</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1.2498</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>-6.6347</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1.1756</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>-6.1545</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.1207</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>-6.2798</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.75338</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>-6.4944</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.55509</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>-6.4625</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1.0676</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>-5.1386</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.95913</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>-5.9472</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.95371</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>-5.4963</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.68933</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>-5.4228</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.8552</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>-2.7379</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.57358</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>-4.5944</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.72542</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>-3.4945</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.51226</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>-5.2476</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.47955</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>-5.2167</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.9247</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>-6.6461</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.57211</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>-5.2419</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.53468</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0.59163</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>-8.7467</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.87315</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>-8.738</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1.2418</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>-7.7989</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>2.4862</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>-9.0288</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2.8844</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <f aca="false">AVERAGE(B30:B40)</f>
+        <v>-6.44141818181818</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">AVERAGE(C30:C40)</f>
+        <v>0.816499090909091</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">AVERAGE(E30:E40)</f>
+        <v>-7.03805454545455</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">AVERAGE(F30:F40)</f>
+        <v>0.919325454545454</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">AVERAGE(H30:H40)</f>
+        <v>-6.46281818181818</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">AVERAGE(I30:I40)</f>
+        <v>0.948538181818182</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">AVERAGE(K30:K40)</f>
+        <v>-6.86468181818182</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">AVERAGE(L30:L40)</f>
+        <v>1.09324363636364</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>2.19103181818182</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">C15</f>
+        <v>2.60175454545455</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">B28</f>
+        <v>-3.85632727272727</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">C28</f>
+        <v>2.36477272727273</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">B41</f>
+        <v>-6.44141818181818</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">C41</f>
+        <v>0.816499090909091</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">B66</f>
+        <v>-4.13544545454545</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">C66</f>
+        <v>2.5708</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">B79</f>
+        <v>-4.79974090909091</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">C79</f>
+        <v>2.53059090909091</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">E15</f>
+        <v>-0.561140545454546</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">F15</f>
+        <v>-2.16007272727273</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">E28</f>
+        <v>-2.97833454545455</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">F28</f>
+        <v>2.12547272727273</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">E41</f>
+        <v>-7.03805454545455</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">F41</f>
+        <v>0.919325454545454</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">E66</f>
+        <v>-4.42769090909091</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">F66</f>
+        <v>2.15640909090909</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">E79</f>
+        <v>-4.88848181818182</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">F79</f>
+        <v>2.15659090909091</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">H15</f>
+        <v>2.20712909090909</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">I15</f>
+        <v>2.52571818181818</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">H28</f>
+        <v>0.304233727272727</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">I28</f>
+        <v>2.40520909090909</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">H41</f>
+        <v>-6.46281818181818</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">I41</f>
+        <v>0.948538181818182</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">H66</f>
+        <v>-4.23952727272727</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">I66</f>
+        <v>2.47525454545455</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">H79</f>
+        <v>-4.28609545454545</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">I79</f>
+        <v>2.36732727272727</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">K15</f>
+        <v>2.1184</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">L15</f>
+        <v>2.2749</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">K28</f>
+        <v>-4.05921909090909</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">L28</f>
+        <v>2.26275454545455</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">K41</f>
+        <v>-6.86468181818182</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">L41</f>
+        <v>1.09324363636364</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">K66</f>
+        <v>-4.97641818181818</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">L66</f>
+        <v>2.38649090909091</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">K79</f>
+        <v>-4.70830909090909</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">L79</f>
+        <v>2.3164</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>-4.0667</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>-4.0729</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2.2855</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>-5.2494</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>2.2503</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>-5.7773</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>2.0104</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>-1.9289</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.5584</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>-2.7712</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>-2.2809</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>2.5109</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>-2.9948</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>2.2509</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>-5.0633</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.5556</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>-4.7321</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>2.2067</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>-6.2641</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>2.4631</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>-7.0353</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>2.5133</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>-2.9616</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.1915</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>-4.4395</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1.8464</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>-2.6499</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>2.2577</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>-3.9262</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>2.4383</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>-7.0978</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.5856</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>-7.5943</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2.1853</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>-6.427</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>2.1556</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>-7.1618</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>2.7402</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>-4.8118</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.6336</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>-4.7095</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2.3228</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>-4.4812</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>-3.2136</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>2.5532</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>-5.0217</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2.4574</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>-5.0294</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>2.1809</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>-4.0963</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>3.0342</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>-5.0682</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>2.2024</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>-2.4953</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.6414</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>-3.0164</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>2.1822</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>-1.7081</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>2.8947</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>-4.4406</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>2.2286</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>-0.907</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.2314</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>-1.8436</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1.598</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>-1.221</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>2.1303</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>-2.2428</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>2.4187</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>-7.0691</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.6239</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>-6.4228</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>2.4842</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>-7.0075</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>2.9137</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>-7.1027</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>2.885</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>-4.0667</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>-4.0729</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2.2855</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>-5.2494</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>2.2503</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>-5.7773</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>2.0104</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <f aca="false">AVERAGE(B55:B65)</f>
+        <v>-4.13544545454545</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <f aca="false">AVERAGE(C55:C65)</f>
+        <v>2.5708</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">AVERAGE(D55:D65)</f>
+        <v>2</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">AVERAGE(E55:E65)</f>
+        <v>-4.42769090909091</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">AVERAGE(F55:F65)</f>
+        <v>2.15640909090909</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">AVERAGE(G55:G65)</f>
+        <v>3</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">AVERAGE(H55:H65)</f>
+        <v>-4.23952727272727</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <f aca="false">AVERAGE(I55:I65)</f>
+        <v>2.47525454545455</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">AVERAGE(J55:J65)</f>
+        <v>4</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">AVERAGE(K55:K65)</f>
+        <v>-4.97641818181818</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">AVERAGE(L55:L65)</f>
+        <v>2.38649090909091</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>-5.6022</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.7522</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>-3.938</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>2.2311</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>-4.6765</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>2.2332</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>-6.464</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1.9483</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>-2.7091</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.5166</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>-2.5767</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>2.1458</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>-2.5151</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>2.4183</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>-2.4206</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>2.2661</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>-4.2952</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.4447</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>-6.0203</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>2.1209</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>-3.3008</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>2.3898</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>-3.6865</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>2.5109</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>-4.1211</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.3135</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>-5.3796</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1.8455</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>-4.1807</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>2.3295</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>-3.4313</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>2.4026</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>-5.8501</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.6062</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>-8.3893</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>2.1568</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>-6.8401</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>2.1388</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>-6.942</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>2.5512</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>-5.6412</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.6335</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>-5.6227</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>2.3545</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>-6.0964</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>-4.0156</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>-5.7234</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.4531</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>-5.4391</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>-4.8257</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>2.7323</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>-5.253</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>2.1259</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>-4.6389</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.5645</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>-3.0193</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>2.1969</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>-1.738</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>2.4292</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>-3.7942</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>2.2369</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>-0.72435</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.2234</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>-1.5743</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1.6426</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>-0.87015</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>-1.3022</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>2.3297</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>-7.8894</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.5766</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>-7.876</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>2.4643</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>-7.4271</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>2.7243</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>-8.018</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>2.6657</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>-5.6022</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.7522</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>-3.938</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>2.2311</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>-4.6765</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>2.2332</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>-6.464</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1.9483</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <f aca="false">AVERAGE(B68:B78)</f>
+        <v>-4.79974090909091</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <f aca="false">AVERAGE(C68:C78)</f>
+        <v>2.53059090909091</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <f aca="false">AVERAGE(D68:D78)</f>
+        <v>2</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">AVERAGE(E68:E78)</f>
+        <v>-4.88848181818182</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <f aca="false">AVERAGE(F68:F78)</f>
+        <v>2.15659090909091</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <f aca="false">AVERAGE(G68:G78)</f>
+        <v>3</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <f aca="false">AVERAGE(H68:H78)</f>
+        <v>-4.28609545454545</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <f aca="false">AVERAGE(I68:I78)</f>
+        <v>2.36732727272727</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">AVERAGE(J68:J78)</f>
+        <v>4</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <f aca="false">AVERAGE(K68:K78)</f>
+        <v>-4.70830909090909</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">AVERAGE(L68:L78)</f>
+        <v>2.3164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -3844,8 +3844,8 @@
   </sheetPr>
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4238,68 +4238,30 @@
         <v>2.9487</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>-4.0808</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3.0154</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>-0.43938</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>-1.857</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>-2.2105</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>2.4105</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>-4.0026</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>2.2736</v>
-      </c>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <f aca="false">AVERAGE(B4:B14)</f>
-        <v>2.19103181818182</v>
+        <v>2.818215</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">AVERAGE(C4:C14)</f>
-        <v>2.60175454545455</v>
+        <v>2.56039</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">AVERAGE(E4:E14)</f>
-        <v>-0.561140545454546</v>
+        <v>-0.5733166</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">AVERAGE(F4:F14)</f>
-        <v>-2.16007272727273</v>
+        <v>-2.19038</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">AVERAGE(H4:H14)</f>
-        <v>2.20712909090909</v>
+        <v>2.648892</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">AVERAGE(I4:I14)</f>
-        <v>2.52571818181818</v>
+        <v>2.53724</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>4</v>
@@ -4321,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-8.5488</v>
+        <v>-8.5492</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7502</v>
@@ -4330,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-6.4578</v>
+        <v>-6.4587</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2.3657</v>
@@ -4339,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>-4.8357</v>
+        <v>-4.837</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>2.3458</v>
@@ -4348,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>-8.0153</v>
+        <v>-8.0219</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>2.0753</v>
@@ -4359,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-1.907</v>
+        <v>-1.9073</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.2</v>
@@ -4368,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-1.6796</v>
+        <v>-1.6803</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.0376</v>
@@ -4377,7 +4339,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.609</v>
+        <v>4.6033</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>2.2804</v>
@@ -4386,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>-3.3933</v>
+        <v>-3.3939</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>2.1509</v>
@@ -4397,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-6.879</v>
+        <v>-6.8793</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.1849</v>
@@ -4406,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-3.3332</v>
+        <v>-3.3362</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1.8418</v>
@@ -4415,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>-1.8406</v>
+        <v>-1.8408</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>2.0916</v>
@@ -4424,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>-6.6541</v>
+        <v>-6.6542</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>2.3458</v>
@@ -4435,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-1.2341</v>
+        <v>-1.2348</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1.8106</v>
@@ -4444,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-2.5422</v>
+        <v>-2.5435</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1.7144</v>
@@ -4453,7 +4415,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>5.5253</v>
+        <v>5.5252</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>2.1919</v>
@@ -4462,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>-4.085</v>
+        <v>-4.0852</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>2.1306</v>
@@ -4473,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-7.8211</v>
+        <v>-7.8214</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2.2436</v>
@@ -4482,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-5.3644</v>
+        <v>-5.371</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1.8988</v>
@@ -4500,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>-5.0556</v>
+        <v>-5.0557</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>2.4118</v>
@@ -4511,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-2.4299</v>
+        <v>-2.432</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2.551</v>
@@ -4520,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-0.64139</v>
+        <v>-0.64113</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2.3965</v>
@@ -4529,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.7152</v>
+        <v>2.7123</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2.3941</v>
@@ -4538,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>-0.51998</v>
+        <v>-0.52035</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>2.4917</v>
@@ -4549,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-3.312</v>
+        <v>-3.3123</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2.3159</v>
@@ -4558,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-1.1476</v>
+        <v>-1.1486</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2.2784</v>
@@ -4567,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>-2.0292</v>
+        <v>-2.0297</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>2.8809</v>
@@ -4576,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>-4.7708</v>
+        <v>-4.771</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>2.101</v>
@@ -4587,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-4.3143</v>
+        <v>-4.3147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2.5192</v>
@@ -4596,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-2.0429</v>
+        <v>-2.0562</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2.1904</v>
@@ -4605,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.2278</v>
+        <v>1.2277</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>2.6752</v>
@@ -4614,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>-3.106</v>
+        <v>-3.107</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>2.2715</v>
@@ -4625,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>4.6883</v>
+        <v>4.6879</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1.9466</v>
@@ -4634,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.45451</v>
+        <v>0.45194</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1.7073</v>
@@ -4643,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>7.1028</v>
+        <v>7.1021</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>2.0922</v>
@@ -4652,7 +4614,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.45407</v>
+        <v>0.4491</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>2.1451</v>
@@ -4663,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-2.1129</v>
+        <v>-2.1145</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2.7403</v>
@@ -4672,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-3.5493</v>
+        <v>-3.5673</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2.5836</v>
@@ -4681,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.059071</v>
+        <v>0.058804</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3.1106</v>
@@ -4690,82 +4652,44 @@
         <v>4</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>-1.4901</v>
+        <v>-1.4944</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>2.6913</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>-8.5488</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>2.7502</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>-6.4578</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>2.3657</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>-4.8357</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>2.3458</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>-8.0153</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>2.0753</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <f aca="false">AVERAGE(B17:B27)</f>
-        <v>-3.85632727272727</v>
+        <v>-3.38776</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">AVERAGE(C17:C27)</f>
-        <v>2.36477272727273</v>
+        <v>2.32623</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">AVERAGE(E17:E27)</f>
-        <v>-2.97833454545455</v>
+        <v>-2.635099</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">AVERAGE(F17:F27)</f>
-        <v>2.12547272727273</v>
+        <v>2.10145</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">AVERAGE(H17:H27)</f>
-        <v>0.304233727272727</v>
+        <v>0.8170504</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">AVERAGE(I17:I27)</f>
-        <v>2.40520909090909</v>
+        <v>2.41115</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="false">AVERAGE(K17:K27)</f>
-        <v>-4.05921909090909</v>
+        <v>-3.665455</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">AVERAGE(L17:L27)</f>
-        <v>2.26275454545455</v>
+        <v>2.2815</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,76 +5077,38 @@
         <v>0.59163</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>-8.7467</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0.87315</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>-8.738</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1.2418</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>-7.7989</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>2.4862</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>-9.0288</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>2.8844</v>
-      </c>
-    </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <f aca="false">AVERAGE(B30:B40)</f>
-        <v>-6.44141818181818</v>
+        <v>-6.21089</v>
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">AVERAGE(C30:C40)</f>
-        <v>0.816499090909091</v>
+        <v>0.810834</v>
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">AVERAGE(E30:E40)</f>
-        <v>-7.03805454545455</v>
+        <v>-6.86806</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">AVERAGE(F30:F40)</f>
-        <v>0.919325454545454</v>
+        <v>0.887078</v>
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">AVERAGE(H30:H40)</f>
-        <v>-6.46281818181818</v>
+        <v>-6.32921</v>
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">AVERAGE(I30:I40)</f>
-        <v>0.948538181818182</v>
+        <v>0.794772</v>
       </c>
       <c r="K41" s="0" t="n">
         <f aca="false">AVERAGE(K30:K40)</f>
-        <v>-6.86468181818182</v>
+        <v>-6.64827</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">AVERAGE(L30:L40)</f>
-        <v>1.09324363636364</v>
+        <v>0.914128</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,43 +5192,43 @@
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">B15</f>
-        <v>2.19103181818182</v>
+        <v>2.818215</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">C15</f>
-        <v>2.60175454545455</v>
+        <v>2.56039</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">B28</f>
-        <v>-3.85632727272727</v>
+        <v>-3.38776</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">C28</f>
-        <v>2.36477272727273</v>
+        <v>2.32623</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">B41</f>
-        <v>-6.44141818181818</v>
+        <v>-6.21089</v>
       </c>
       <c r="G48" s="0" t="n">
         <f aca="false">C41</f>
-        <v>0.816499090909091</v>
+        <v>0.810834</v>
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">B66</f>
-        <v>-4.13544545454545</v>
+        <v>-4.14232</v>
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">C66</f>
-        <v>2.5708</v>
+        <v>2.53788</v>
       </c>
       <c r="J48" s="0" t="n">
         <f aca="false">B79</f>
-        <v>-4.79974090909091</v>
+        <v>-4.719495</v>
       </c>
       <c r="K48" s="0" t="n">
         <f aca="false">C79</f>
-        <v>2.53059090909091</v>
+        <v>2.50843</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,43 +5237,43 @@
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">E15</f>
-        <v>-0.561140545454546</v>
+        <v>-0.5733166</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">F15</f>
-        <v>-2.16007272727273</v>
+        <v>-2.19038</v>
       </c>
       <c r="D49" s="0" t="n">
         <f aca="false">E28</f>
-        <v>-2.97833454545455</v>
+        <v>-2.635099</v>
       </c>
       <c r="E49" s="0" t="n">
         <f aca="false">F28</f>
-        <v>2.12547272727273</v>
+        <v>2.10145</v>
       </c>
       <c r="F49" s="0" t="n">
         <f aca="false">E41</f>
-        <v>-7.03805454545455</v>
+        <v>-6.86806</v>
       </c>
       <c r="G49" s="0" t="n">
         <f aca="false">F41</f>
-        <v>0.919325454545454</v>
+        <v>0.887078</v>
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">E66</f>
-        <v>-4.42769090909091</v>
+        <v>-4.46317</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">F66</f>
-        <v>2.15640909090909</v>
+        <v>2.1435</v>
       </c>
       <c r="J49" s="0" t="n">
         <f aca="false">E79</f>
-        <v>-4.88848181818182</v>
+        <v>-4.98353</v>
       </c>
       <c r="K49" s="0" t="n">
         <f aca="false">F79</f>
-        <v>2.15659090909091</v>
+        <v>2.14914</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,43 +5282,43 @@
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">H15</f>
-        <v>2.20712909090909</v>
+        <v>2.648892</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">I15</f>
-        <v>2.52571818181818</v>
+        <v>2.53724</v>
       </c>
       <c r="D50" s="0" t="n">
         <f aca="false">H28</f>
-        <v>0.304233727272727</v>
+        <v>0.8170504</v>
       </c>
       <c r="E50" s="0" t="n">
         <f aca="false">I28</f>
-        <v>2.40520909090909</v>
+        <v>2.41115</v>
       </c>
       <c r="F50" s="0" t="n">
         <f aca="false">H41</f>
-        <v>-6.46281818181818</v>
+        <v>-6.32921</v>
       </c>
       <c r="G50" s="0" t="n">
         <f aca="false">I41</f>
-        <v>0.948538181818182</v>
+        <v>0.794772</v>
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">H66</f>
-        <v>-4.23952727272727</v>
+        <v>-4.13854</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">I66</f>
-        <v>2.47525454545455</v>
+        <v>2.49775</v>
       </c>
       <c r="J50" s="0" t="n">
         <f aca="false">H79</f>
-        <v>-4.28609545454545</v>
+        <v>-4.247055</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="false">I79</f>
-        <v>2.36732727272727</v>
+        <v>2.38074</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,35 +5335,35 @@
       </c>
       <c r="D51" s="0" t="n">
         <f aca="false">K28</f>
-        <v>-4.05921909090909</v>
+        <v>-3.665455</v>
       </c>
       <c r="E51" s="0" t="n">
         <f aca="false">L28</f>
-        <v>2.26275454545455</v>
+        <v>2.2815</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">K41</f>
-        <v>-6.86468181818182</v>
+        <v>-6.64827</v>
       </c>
       <c r="G51" s="0" t="n">
         <f aca="false">L41</f>
-        <v>1.09324363636364</v>
+        <v>0.914128</v>
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">K66</f>
-        <v>-4.97641818181818</v>
+        <v>-4.89633</v>
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">L66</f>
-        <v>2.38649090909091</v>
+        <v>2.4241</v>
       </c>
       <c r="J51" s="0" t="n">
         <f aca="false">K79</f>
-        <v>-4.70830909090909</v>
+        <v>-4.53274</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="false">L79</f>
-        <v>2.3164</v>
+        <v>2.35321</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,52 +5751,14 @@
         <v>2.885</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>-4.0667</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>-4.0729</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>2.2855</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>-5.2494</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>2.2503</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <v>-5.7773</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>2.0104</v>
-      </c>
-    </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
         <f aca="false">AVERAGE(B55:B65)</f>
-        <v>-4.13544545454545</v>
+        <v>-4.14232</v>
       </c>
       <c r="C66" s="0" t="n">
         <f aca="false">AVERAGE(C55:C65)</f>
-        <v>2.5708</v>
+        <v>2.53788</v>
       </c>
       <c r="D66" s="0" t="n">
         <f aca="false">AVERAGE(D55:D65)</f>
@@ -5918,11 +5766,11 @@
       </c>
       <c r="E66" s="0" t="n">
         <f aca="false">AVERAGE(E55:E65)</f>
-        <v>-4.42769090909091</v>
+        <v>-4.46317</v>
       </c>
       <c r="F66" s="0" t="n">
         <f aca="false">AVERAGE(F55:F65)</f>
-        <v>2.15640909090909</v>
+        <v>2.1435</v>
       </c>
       <c r="G66" s="0" t="n">
         <f aca="false">AVERAGE(G55:G65)</f>
@@ -5930,11 +5778,11 @@
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">AVERAGE(H55:H65)</f>
-        <v>-4.23952727272727</v>
+        <v>-4.13854</v>
       </c>
       <c r="I66" s="0" t="n">
         <f aca="false">AVERAGE(I55:I65)</f>
-        <v>2.47525454545455</v>
+        <v>2.49775</v>
       </c>
       <c r="J66" s="0" t="n">
         <f aca="false">AVERAGE(J55:J65)</f>
@@ -5942,11 +5790,11 @@
       </c>
       <c r="K66" s="0" t="n">
         <f aca="false">AVERAGE(K55:K65)</f>
-        <v>-4.97641818181818</v>
+        <v>-4.89633</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">AVERAGE(L55:L65)</f>
-        <v>2.38649090909091</v>
+        <v>2.4241</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,52 +6182,14 @@
         <v>2.6657</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>-5.6022</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>2.7522</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>-3.938</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>2.2311</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>-4.6765</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>2.2332</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>-6.464</v>
-      </c>
-      <c r="L78" s="0" t="n">
-        <v>1.9483</v>
-      </c>
-    </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="n">
         <f aca="false">AVERAGE(B68:B78)</f>
-        <v>-4.79974090909091</v>
+        <v>-4.719495</v>
       </c>
       <c r="C79" s="0" t="n">
         <f aca="false">AVERAGE(C68:C78)</f>
-        <v>2.53059090909091</v>
+        <v>2.50843</v>
       </c>
       <c r="D79" s="0" t="n">
         <f aca="false">AVERAGE(D68:D78)</f>
@@ -6387,11 +6197,11 @@
       </c>
       <c r="E79" s="0" t="n">
         <f aca="false">AVERAGE(E68:E78)</f>
-        <v>-4.88848181818182</v>
+        <v>-4.98353</v>
       </c>
       <c r="F79" s="0" t="n">
         <f aca="false">AVERAGE(F68:F78)</f>
-        <v>2.15659090909091</v>
+        <v>2.14914</v>
       </c>
       <c r="G79" s="0" t="n">
         <f aca="false">AVERAGE(G68:G78)</f>
@@ -6399,11 +6209,11 @@
       </c>
       <c r="H79" s="0" t="n">
         <f aca="false">AVERAGE(H68:H78)</f>
-        <v>-4.28609545454545</v>
+        <v>-4.247055</v>
       </c>
       <c r="I79" s="0" t="n">
         <f aca="false">AVERAGE(I68:I78)</f>
-        <v>2.36732727272727</v>
+        <v>2.38074</v>
       </c>
       <c r="J79" s="0" t="n">
         <f aca="false">AVERAGE(J68:J78)</f>
@@ -6411,11 +6221,11 @@
       </c>
       <c r="K79" s="0" t="n">
         <f aca="false">AVERAGE(K68:K78)</f>
-        <v>-4.70830909090909</v>
+        <v>-4.53274</v>
       </c>
       <c r="L79" s="0" t="n">
         <f aca="false">AVERAGE(L68:L78)</f>
-        <v>2.3164</v>
+        <v>2.35321</v>
       </c>
     </row>
   </sheetData>

--- a/Output/result.xlsx
+++ b/Output/result.xlsx
@@ -186,11 +186,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,15 +214,15 @@
   <dimension ref="A4:M76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="2" sqref="D64 F62 K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,12 +2031,12 @@
   <dimension ref="A3:M76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="2" sqref="D64 F62 H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,14 +3844,11 @@
   </sheetPr>
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F62" activeCellId="1" sqref="D64 F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -5216,7 +5213,7 @@
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">B66</f>
-        <v>-4.14232</v>
+        <v>3.302455</v>
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">C66</f>
@@ -5261,7 +5258,7 @@
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">E66</f>
-        <v>-4.46317</v>
+        <v>2.900728</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">F66</f>
@@ -5306,7 +5303,7 @@
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">H66</f>
-        <v>-4.13854</v>
+        <v>3.647696</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">I66</f>
@@ -5351,7 +5348,7 @@
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">K66</f>
-        <v>-4.89633</v>
+        <v>3.4798448</v>
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">L66</f>
@@ -5376,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>-4.0667</v>
+        <v>2.4277</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2.9</v>
@@ -5385,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>-4.0729</v>
+        <v>2.2883</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2.2855</v>
@@ -5394,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>-5.2494</v>
+        <v>3.4852</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>2.2503</v>
@@ -5403,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>-5.7773</v>
+        <v>5.1564</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>2.0104</v>
@@ -5414,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>-1.9289</v>
+        <v>2.0886</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.5584</v>
@@ -5423,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>-2.7712</v>
+        <v>0.4625</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2.143</v>
@@ -5432,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>-2.2809</v>
+        <v>1.1665</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>2.5109</v>
@@ -5441,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>-2.9948</v>
+        <v>0.34914</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>2.2509</v>
@@ -5452,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>-5.0633</v>
+        <v>3.6454</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2.5556</v>
@@ -5461,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-4.7321</v>
+        <v>2.6286</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.2067</v>
@@ -5470,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>-6.2641</v>
+        <v>5.287</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>2.4631</v>
@@ -5479,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>-7.0353</v>
+        <v>5.8531</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>2.5133</v>
@@ -5490,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>-2.9616</v>
+        <v>0.22222</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2.1915</v>
@@ -5499,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-4.4395</v>
+        <v>2.2979</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1.8464</v>
@@ -5508,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>-2.6499</v>
+        <v>0.66726</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>2.2577</v>
@@ -5517,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>-3.9262</v>
+        <v>1.5543</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>2.4383</v>
@@ -5528,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>-7.0978</v>
+        <v>5.9966</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2.5856</v>
@@ -5537,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>-7.5943</v>
+        <v>6.9585</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2.1853</v>
@@ -5546,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>-6.427</v>
+        <v>5.5173</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>2.1556</v>
@@ -5555,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>-7.1618</v>
+        <v>6.2591</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>2.7402</v>
@@ -5566,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>-4.8118</v>
+        <v>2.737</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.6336</v>
@@ -5575,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-4.7095</v>
+        <v>2.5361</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2.3228</v>
@@ -5584,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>-4.4812</v>
+        <v>2.1162</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>2.367</v>
@@ -5593,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>-3.2136</v>
+        <v>0.095508</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>2.5532</v>
@@ -5604,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>-5.0217</v>
+        <v>3.3941</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2.4574</v>
@@ -5613,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>-5.0294</v>
+        <v>3.3158</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2.1809</v>
@@ -5622,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>-4.0963</v>
+        <v>1.9158</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>3.0342</v>
@@ -5631,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>-5.0682</v>
+        <v>3.8888</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>2.2024</v>
@@ -5642,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>-2.4953</v>
+        <v>0.92933</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2.6414</v>
@@ -5651,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-3.0164</v>
+        <v>0.68828</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2.1822</v>
@@ -5660,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>-1.7081</v>
+        <v>3.0428</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>2.8947</v>
@@ -5669,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>-4.4406</v>
+        <v>2.0472</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>2.2286</v>
@@ -5680,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>-0.907</v>
+        <v>5.5495</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2.2314</v>
@@ -5689,7 +5686,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-1.8436</v>
+        <v>2.5027</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1.598</v>
@@ -5698,7 +5695,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>-1.221</v>
+        <v>7.0752</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>2.1303</v>
@@ -5707,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>-2.2428</v>
+        <v>3.6653</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>2.4187</v>
@@ -5718,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>-7.0691</v>
+        <v>6.0341</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2.6239</v>
@@ -5727,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-6.4228</v>
+        <v>5.3286</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2.4842</v>
@@ -5736,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>-7.0075</v>
+        <v>6.2037</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>2.9137</v>
@@ -5745,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>-7.1027</v>
+        <v>5.9296</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>2.885</v>
@@ -5754,7 +5751,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
         <f aca="false">AVERAGE(B55:B65)</f>
-        <v>-4.14232</v>
+        <v>3.302455</v>
       </c>
       <c r="C66" s="0" t="n">
         <f aca="false">AVERAGE(C55:C65)</f>
@@ -5766,7 +5763,7 @@
       </c>
       <c r="E66" s="0" t="n">
         <f aca="false">AVERAGE(E55:E65)</f>
-        <v>-4.46317</v>
+        <v>2.900728</v>
       </c>
       <c r="F66" s="0" t="n">
         <f aca="false">AVERAGE(F55:F65)</f>
@@ -5778,7 +5775,7 @@
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">AVERAGE(H55:H65)</f>
-        <v>-4.13854</v>
+        <v>3.647696</v>
       </c>
       <c r="I66" s="0" t="n">
         <f aca="false">AVERAGE(I55:I65)</f>
@@ -5790,7 +5787,7 @@
       </c>
       <c r="K66" s="0" t="n">
         <f aca="false">AVERAGE(K55:K65)</f>
-        <v>-4.89633</v>
+        <v>3.4798448</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">AVERAGE(L55:L65)</f>
